--- a/teaching/traditional_assets/database/data/croatia/croatia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/croatia/croatia_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0759</v>
+        <v>0.127</v>
       </c>
       <c r="E2">
-        <v>0.167</v>
+        <v>0.2895</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003268407079030186</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002869976082190822</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>553.4</v>
+        <v>402.6</v>
       </c>
       <c r="L2">
-        <v>0.3559529169614716</v>
+        <v>0.2860390763765541</v>
       </c>
       <c r="M2">
-        <v>790.7</v>
+        <v>2.1766</v>
       </c>
       <c r="N2">
-        <v>0.1430069993308133</v>
+        <v>0.0003895411267807287</v>
       </c>
       <c r="O2">
-        <v>1.428803758583303</v>
+        <v>0.00540635866865375</v>
       </c>
       <c r="P2">
-        <v>790.7</v>
+        <v>1.8416</v>
       </c>
       <c r="Q2">
-        <v>0.1430069993308133</v>
+        <v>0.0003295869425155701</v>
       </c>
       <c r="R2">
-        <v>1.428803758583303</v>
+        <v>0.004574267262791853</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1539097675273362</v>
       </c>
       <c r="U2">
-        <v>1818.5</v>
+        <v>1775.5</v>
       </c>
       <c r="V2">
-        <v>0.3288962037221248</v>
+        <v>0.3177571766053404</v>
       </c>
       <c r="W2">
-        <v>0.09917355371900825</v>
+        <v>0.07374309151116638</v>
       </c>
       <c r="X2">
-        <v>0.05424146709398728</v>
+        <v>0.04371685692879624</v>
       </c>
       <c r="Y2">
-        <v>0.04493208662502098</v>
+        <v>0.03002623458237014</v>
       </c>
       <c r="Z2">
-        <v>0.2435576732650775</v>
+        <v>0.3464615384615385</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05412592908834554</v>
+        <v>0.04364841263383558</v>
       </c>
       <c r="AC2">
-        <v>-0.05412592908834554</v>
+        <v>-0.04364841263383558</v>
       </c>
       <c r="AD2">
-        <v>372.285</v>
+        <v>171.2</v>
       </c>
       <c r="AE2">
-        <v>52.09303757115885</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>424.3780375711589</v>
+        <v>171.2</v>
       </c>
       <c r="AG2">
-        <v>-1394.121962428841</v>
+        <v>-1604.3</v>
       </c>
       <c r="AH2">
-        <v>0.07128237223569107</v>
+        <v>0.02972841564214767</v>
       </c>
       <c r="AI2">
-        <v>0.07009324915173104</v>
+        <v>0.02618697993147332</v>
       </c>
       <c r="AJ2">
-        <v>-0.3371534140596629</v>
+        <v>-0.4027565084226646</v>
       </c>
       <c r="AK2">
-        <v>-0.3291145397978049</v>
+        <v>-0.3368891875433108</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>24.01838709677419</v>
-      </c>
-      <c r="AP2">
-        <v>-89.94335241476394</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Privredna banka Zagreb dd (ZGSE:PBZ)</t>
+          <t>Hrvatska postanska banka d.d. (ZGSE:HPB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0784</v>
-      </c>
-      <c r="E3">
-        <v>0.154</v>
+        <v>0.164</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +722,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007471537253004308</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00678333605665579</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>254.7</v>
+        <v>20.9</v>
       </c>
       <c r="L3">
-        <v>0.3745037494486105</v>
+        <v>0.1780238500851788</v>
       </c>
       <c r="M3">
-        <v>203.2</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.08603971715289833</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.7978013349038084</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>203.2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.08603971715289833</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.7978013349038084</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>539.3</v>
+        <v>170.2</v>
       </c>
       <c r="V3">
-        <v>0.2283524579751874</v>
+        <v>1.104477611940298</v>
       </c>
       <c r="W3">
-        <v>0.1047630799605133</v>
+        <v>0.05855982067806108</v>
       </c>
       <c r="X3">
-        <v>0.05259953890227811</v>
+        <v>0.04352324750056381</v>
       </c>
       <c r="Y3">
-        <v>0.05216354105823522</v>
+        <v>0.01503657317749726</v>
       </c>
       <c r="Z3">
-        <v>0.2723021684354865</v>
+        <v>0.5053809728798968</v>
       </c>
       <c r="AA3">
-        <v>0.001847117117453994</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05240545301907111</v>
+        <v>0.04352324750056381</v>
       </c>
       <c r="AC3">
-        <v>-0.05055833590161712</v>
+        <v>-0.04352324750056381</v>
       </c>
       <c r="AD3">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>52.09303757115885</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>52.77803757115885</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-486.5219624288411</v>
+        <v>-170.2</v>
       </c>
       <c r="AH3">
-        <v>0.02185898432286046</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02067231662897724</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2594537439543677</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="AK3">
-        <v>-0.2415966175773974</v>
+        <v>-0.8093200190204469</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.04419354838709678</v>
-      </c>
-      <c r="AP3">
-        <v>-31.38851370508652</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +820,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zagrebacka banka d.d. (ZGSE:ZABA)</t>
+          <t>Istarska kreditna banka Umag d.d. (ZGSE:IKBA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +829,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.07339999999999999</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E4">
-        <v>0.18</v>
+        <v>0.227</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,85 +847,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>267.5</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>0.3528092851490372</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="M4">
-        <v>587.5</v>
+        <v>2.0666</v>
       </c>
       <c r="N4">
-        <v>0.1968503937007874</v>
+        <v>0.05904571428571428</v>
       </c>
       <c r="O4">
-        <v>2.196261682242991</v>
+        <v>0.3757454545454545</v>
       </c>
       <c r="P4">
-        <v>587.5</v>
+        <v>1.7316</v>
       </c>
       <c r="Q4">
-        <v>0.1968503937007874</v>
+        <v>0.04947428571428571</v>
       </c>
       <c r="R4">
-        <v>2.196261682242991</v>
+        <v>0.3148363636363636</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.1621020032904287</v>
       </c>
       <c r="U4">
-        <v>1031.9</v>
+        <v>34.8</v>
       </c>
       <c r="V4">
-        <v>0.3457530574635618</v>
+        <v>0.9942857142857142</v>
       </c>
       <c r="W4">
-        <v>0.09249974065493274</v>
+        <v>0.1124744376278119</v>
       </c>
       <c r="X4">
-        <v>0.05424146709398728</v>
+        <v>0.04352324750056381</v>
       </c>
       <c r="Y4">
-        <v>0.03825827356094547</v>
+        <v>0.06895119012724805</v>
       </c>
       <c r="Z4">
-        <v>0.2138304472897513</v>
+        <v>2.032608695652175</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05412592908834554</v>
+        <v>0.04352324750056381</v>
       </c>
       <c r="AC4">
-        <v>-0.05412592908834554</v>
+        <v>-0.04352324750056381</v>
       </c>
       <c r="AD4">
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>248.9</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-783.0000000000001</v>
+        <v>-34.8</v>
       </c>
       <c r="AH4">
-        <v>0.07697779427228305</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.08236812495863392</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.3556665909607087</v>
+        <v>-173.9999999999975</v>
       </c>
       <c r="AK4">
-        <v>-0.3934871099050204</v>
+        <v>-1.633802816901408</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -960,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hrvatska postanska banka d.d. (ZGSE:HPB)</t>
+          <t>Privredna banka Zagreb d.d. (ZGSE:PBZ)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -968,6 +950,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.107</v>
+      </c>
+      <c r="E5">
+        <v>0.352</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -981,87 +969,209 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>31.2</v>
+        <v>176.2</v>
       </c>
       <c r="L5">
-        <v>0.2680412371134021</v>
+        <v>0.2796825396825396</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.038</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>1.468712557492366e-05</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.0002156640181611805</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>0.038</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>1.468712557492366e-05</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.0002156640181611805</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>247.3</v>
+        <v>593.5</v>
       </c>
       <c r="V5">
-        <v>1.352104975396391</v>
+        <v>0.2293897112820314</v>
       </c>
       <c r="W5">
-        <v>0.09917355371900825</v>
+        <v>0.07526055014522468</v>
       </c>
       <c r="X5">
-        <v>0.07004109531531717</v>
+        <v>0.04391046635702867</v>
       </c>
       <c r="Y5">
-        <v>0.02913245840369108</v>
+        <v>0.03135008378819601</v>
       </c>
       <c r="Z5">
-        <v>0.3424536628420123</v>
+        <v>0.3433429614692899</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05947325482044608</v>
+        <v>0.04377357776710734</v>
       </c>
       <c r="AC5">
-        <v>-0.05947325482044608</v>
+        <v>-0.04377357776710734</v>
       </c>
       <c r="AD5">
-        <v>122.7</v>
+        <v>35.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>122.7</v>
+        <v>35.7</v>
       </c>
       <c r="AG5">
-        <v>-124.6</v>
+        <v>-557.8</v>
       </c>
       <c r="AH5">
-        <v>0.4015052356020942</v>
+        <v>0.01361036980556615</v>
       </c>
       <c r="AI5">
-        <v>0.255838198498749</v>
+        <v>0.01245899350875969</v>
       </c>
       <c r="AJ5">
-        <v>-2.137221269296741</v>
+        <v>-0.2748460211874845</v>
       </c>
       <c r="AK5">
-        <v>-0.5363753766681018</v>
+        <v>-0.2455213697785994</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zagrebacka banka d.d. (ZGSE:ZABA)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.147</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>0.3118178983473652</v>
+      </c>
+      <c r="M6">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.561183836084235e-05</v>
+      </c>
+      <c r="O6">
+        <v>0.00036</v>
+      </c>
+      <c r="P6">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>2.561183836084235e-05</v>
+      </c>
+      <c r="R6">
+        <v>0.00036</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>977</v>
+      </c>
+      <c r="V6">
+        <v>0.3475384177575413</v>
+      </c>
+      <c r="W6">
+        <v>0.07222563287710809</v>
+      </c>
+      <c r="X6">
+        <v>0.04487588873199083</v>
+      </c>
+      <c r="Y6">
+        <v>0.02734974414511726</v>
+      </c>
+      <c r="Z6">
+        <v>0.3229444640249736</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.04436900685192068</v>
+      </c>
+      <c r="AC6">
+        <v>-0.04436900685192068</v>
+      </c>
+      <c r="AD6">
+        <v>135.5</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>135.5</v>
+      </c>
+      <c r="AG6">
+        <v>-841.5</v>
+      </c>
+      <c r="AH6">
+        <v>0.04598364271897377</v>
+      </c>
+      <c r="AI6">
+        <v>0.0418778588206206</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.4272224196578159</v>
+      </c>
+      <c r="AK6">
+        <v>-0.3725759319932702</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0</v>
       </c>
     </row>
